--- a/data/Result.xlsx
+++ b/data/Result.xlsx
@@ -53,22 +53,22 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>[-0.032438691286505825;0.18301619288525134] (confidence level:0.95)</t>
+    <t>[-0.14519209874283281;0.10350377161373037] (confidence level:0.95)</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>0.5735311490720282</t>
-  </si>
-  <si>
-    <t>[0.5682734192820056;0.639266686382477] (confidence level:0.95)</t>
+    <t>0.5600836814119267</t>
+  </si>
+  <si>
+    <t>[0.5516845334261852;0.6487046760548384] (confidence level:0.95)</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>[1.3260164682988274;2.6796247930279016] (confidence level:0.95)</t>
+    <t>[1.2100977444044814;2.413968234033788] (confidence level:0.95)</t>
   </si>
 </sst>
 </file>
@@ -126,9 +126,9 @@
     <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.4921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="66.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="65.765625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.8515625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.52734375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="13.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -175,31 +175,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.07528875079937276</v>
+        <v>-0.020844163564551228</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.5496399063228657</v>
+        <v>0.6018825355017278</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>1.987754626199603</v>
+        <v>1.9730493007227778</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>7.300425368824752</v>
+        <v>-28.875350821240126</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>0.30210402662260866</v>
+        <v>0.3622625865419886</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>-0.994142035022378</v>
+        <v>-0.9945626924745739</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.9936125911772251</v>
+        <v>0.978486608248204</v>
       </c>
     </row>
     <row r="3">
@@ -210,31 +210,31 @@
         <v>15</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.6037700528322413</v>
+        <v>0.6001946047405118</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.18110860112853416</v>
+        <v>0.1980039294475524</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.7675229201941615</v>
+        <v>0.81311603264315</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>100.0</v>
+        <v>64.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>0.299962875400936</v>
+        <v>0.32989954905235686</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>0.03280032540273449</v>
+        <v>0.03920555607667131</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>0.21837803410846</v>
+        <v>0.1501488398681844</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.9859009543026215</v>
+        <v>0.9632648725113344</v>
       </c>
     </row>
     <row r="4">
@@ -245,31 +245,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>2.0028206306633645</v>
+        <v>1.8120329892191347</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.453145913410053</v>
+        <v>2.993391249215969</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>17.651092458256308</v>
+        <v>20.40647985972686</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.7241413736917215</v>
+        <v>1.6519518502286876</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>11.92421669930055</v>
+        <v>8.96039117088274</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>-5.415610961439388</v>
+        <v>-8.114952356999716</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>12.23548149681692</v>
+        <v>12.291527502727146</v>
       </c>
     </row>
   </sheetData>
